--- a/Documentation/Documents/Blue Print/API Documents/JSON Schema Restriction.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/JSON Schema Restriction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
@@ -95,6 +95,12 @@
 21
 25
 30</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>"type": "number"</t>
   </si>
 </sst>
 </file>
@@ -483,13 +489,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E8"/>
+  <dimension ref="B1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -557,27 +563,37 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:5" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="51" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:5" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Documentation/Documents/Blue Print/API Documents/JSON Schema Restriction.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/JSON Schema Restriction.xlsx
@@ -495,7 +495,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/Documentation/Documents/Blue Print/API Documents/JSON Schema Restriction.xlsx
+++ b/Documentation/Documents/Blue Print/API Documents/JSON Schema Restriction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>"type": "number"</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Must NULL</t>
+  </si>
+  <si>
+    <t>"additionalProperties": false</t>
   </si>
 </sst>
 </file>
@@ -144,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -167,11 +176,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -184,6 +208,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,13 +516,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E9"/>
+  <dimension ref="B1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -597,6 +624,18 @@
         <v>17</v>
       </c>
     </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
